--- a/data_output/prism_passive/all_passive_out_norm_elong_percent_msc_GM_Fuku_ind_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_elong_percent_msc_GM_Fuku_ind_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +351,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -518,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>13.933550839481363</v>
+        <v>13.933550705838218</v>
       </c>
       <c r="C2">
-        <v>24.943650496893291</v>
+        <v>24.943650448613912</v>
       </c>
       <c r="D2">
-        <v>37.304559910320542</v>
+        <v>37.304559833509309</v>
       </c>
       <c r="E2">
-        <v>59.981134397489491</v>
+        <v>59.981134300733409</v>
       </c>
       <c r="F2">
-        <v>30.200089428074712</v>
+        <v>30.200089428676456</v>
       </c>
       <c r="G2">
-        <v>13.486974794239448</v>
+        <v>13.486974754789655</v>
       </c>
       <c r="H2">
-        <v>30.657721329949766</v>
+        <v>30.65772114945538</v>
       </c>
       <c r="I2">
-        <v>33.9350103969537</v>
+        <v>33.935010396972068</v>
       </c>
       <c r="J2">
-        <v>34.077777196318145</v>
+        <v>34.077777161158046</v>
       </c>
       <c r="K2">
-        <v>13.139629314743839</v>
+        <v>13.139629274974743</v>
       </c>
       <c r="L2">
-        <v>6.805228161328662</v>
+        <v>6.8052281178692704</v>
       </c>
       <c r="M2">
-        <v>-14.332472635149562</v>
+        <v>-14.332472732928551</v>
       </c>
       <c r="N2">
-        <v>31.78838523537436</v>
+        <v>31.788385198268053</v>
       </c>
       <c r="O2">
-        <v>40.073756880533068</v>
+        <v>40.073756798014848</v>
       </c>
       <c r="P2">
-        <v>42.004335957255307</v>
+        <v>42.00433588643849</v>
       </c>
       <c r="Q2">
-        <v>4.4931528264469733</v>
+        <v>4.4931527502460362</v>
       </c>
       <c r="R2">
-        <v>-12.468736490442248</v>
+        <v>-12.468736369242462</v>
       </c>
       <c r="S2">
-        <v>57.485493405919094</v>
+        <v>57.485493477108328</v>
       </c>
       <c r="T2">
-        <v>55.220749628639751</v>
+        <v>55.220749650492408</v>
       </c>
       <c r="U2">
-        <v>7.8086297855034053</v>
+        <v>7.8086297195476888</v>
       </c>
       <c r="V2">
-        <v>22.427323738217524</v>
+        <v>22.427323721636963</v>
       </c>
       <c r="W2">
-        <v>-27.821386773492797</v>
+        <v>-27.821386921087221</v>
       </c>
       <c r="X2">
-        <v>10.835980756474486</v>
+        <v>10.835980687704748</v>
       </c>
       <c r="Y2">
-        <v>71.951120311816098</v>
+        <v>71.951120196510573</v>
       </c>
       <c r="Z2">
-        <v>39.40278202277652</v>
+        <v>39.40278194804111</v>
       </c>
       <c r="AA2">
-        <v>52.718514583581111</v>
+        <v>52.718514478552081</v>
       </c>
       <c r="AB2">
-        <v>48.057225046705987</v>
+        <v>48.057224853401685</v>
       </c>
       <c r="AC2">
-        <v>9.5996079775569765</v>
+        <v>9.5996079775904732</v>
       </c>
       <c r="AD2">
-        <v>75.635481767846485</v>
+        <v>75.635481515250518</v>
       </c>
       <c r="AE2">
-        <v>30.383882404002406</v>
+        <v>30.383882333256313</v>
       </c>
       <c r="AF2">
-        <v>39.453491348201901</v>
+        <v>39.453491256408732</v>
       </c>
       <c r="AG2">
-        <v>46.583427960448979</v>
+        <v>46.583427928383649</v>
       </c>
       <c r="AH2">
-        <v>49.863345245379854</v>
+        <v>49.863345142644597</v>
       </c>
       <c r="AI2">
-        <v>44.80918678048976</v>
+        <v>44.809186678385529</v>
       </c>
       <c r="AJ2">
-        <v>32.938896991020108</v>
+        <v>32.938896903204366</v>
       </c>
       <c r="AK2">
-        <v>34.650374381539599</v>
+        <v>34.650374305832948</v>
       </c>
       <c r="AL2">
-        <v>-0.1396496274670519</v>
+        <v>-0.13964967704211786</v>
       </c>
       <c r="AM2">
-        <v>48.057370814258007</v>
+        <v>48.057370662749413</v>
       </c>
       <c r="AN2">
-        <v>42.017584718273021</v>
+        <v>42.017584636898228</v>
       </c>
       <c r="AO2">
-        <v>66.792124703021003</v>
+        <v>66.792124579834422</v>
       </c>
       <c r="AP2">
-        <v>49.362339485372111</v>
+        <v>49.362339392372974</v>
       </c>
       <c r="AQ2">
-        <v>4.1030483705747196</v>
+        <v>4.1030483393096171</v>
       </c>
       <c r="AR2">
-        <v>64.062416235469072</v>
+        <v>64.062416212696419</v>
       </c>
       <c r="AS2">
-        <v>58.594153122765682</v>
+        <v>58.594153038853605</v>
       </c>
       <c r="AT2">
-        <v>36.212277974590343</v>
+        <v>36.21227786329969</v>
       </c>
       <c r="AU2">
-        <v>54.545697544496328</v>
+        <v>54.545697496104395</v>
       </c>
       <c r="AV2">
-        <v>29.949999916598664</v>
+        <v>29.949999488332686</v>
       </c>
       <c r="AW2">
-        <v>23.891859781358747</v>
+        <v>23.8918596826509</v>
       </c>
       <c r="AX2">
-        <v>57.498612665241232</v>
+        <v>57.498612566280997</v>
       </c>
       <c r="AY2">
-        <v>76.93171926292051</v>
+        <v>76.931719187917153</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -673,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>21.181084357716493</v>
+        <v>21.1810840239289</v>
       </c>
       <c r="C3">
-        <v>25.30745444591707</v>
+        <v>25.307454358271404</v>
       </c>
       <c r="D3">
-        <v>53.765008528954624</v>
+        <v>53.765008247925039</v>
       </c>
       <c r="E3">
-        <v>47.818303719209382</v>
+        <v>47.818303672092384</v>
       </c>
       <c r="F3">
-        <v>23.250358648126017</v>
+        <v>23.250358539376357</v>
       </c>
       <c r="G3">
-        <v>40.68835906479972</v>
+        <v>40.688358966359672</v>
       </c>
       <c r="H3">
-        <v>5.4595122024391989</v>
+        <v>5.4595122313713675</v>
       </c>
       <c r="I3">
-        <v>15.540375828750856</v>
+        <v>15.540375786150362</v>
       </c>
       <c r="J3">
-        <v>43.862538336827441</v>
+        <v>43.862538226314747</v>
       </c>
       <c r="K3">
-        <v>109.63933676200641</v>
+        <v>109.63933673761943</v>
       </c>
       <c r="L3">
-        <v>42.824599861422435</v>
+        <v>42.824599794695814</v>
       </c>
       <c r="M3">
-        <v>9.7454792372060304</v>
+        <v>9.7452631679942634</v>
       </c>
       <c r="N3">
-        <v>31.338697519303661</v>
+        <v>31.338697509006231</v>
       </c>
       <c r="O3">
-        <v>-43.181887385762415</v>
+        <v>-43.18188739632469</v>
       </c>
       <c r="P3">
-        <v>48.105502544836675</v>
+        <v>48.105502430128809</v>
       </c>
       <c r="Q3">
-        <v>26.222253799953567</v>
+        <v>26.222253704961457</v>
       </c>
       <c r="R3">
-        <v>-0.4405250186203008</v>
+        <v>-0.44052512420341572</v>
       </c>
       <c r="S3">
-        <v>56.587986738844783</v>
+        <v>56.58798664142801</v>
       </c>
       <c r="T3">
-        <v>50.870488647916567</v>
+        <v>50.870488573930494</v>
       </c>
       <c r="U3">
-        <v>39.071799590933004</v>
+        <v>39.071799483709377</v>
       </c>
       <c r="V3">
-        <v>41.53077774940342</v>
+        <v>41.530777775885902</v>
       </c>
       <c r="W3">
-        <v>8.9550783396380673</v>
+        <v>8.9550781618658082</v>
       </c>
       <c r="X3">
-        <v>-2.1239953148324937</v>
+        <v>-2.1239953641873308</v>
       </c>
       <c r="Y3">
-        <v>83.898408427772409</v>
+        <v>83.898408250990244</v>
       </c>
       <c r="Z3">
-        <v>57.361002471590382</v>
+        <v>57.361002367369665</v>
       </c>
       <c r="AA3">
-        <v>52.341230016305332</v>
+        <v>52.341229930611902</v>
       </c>
       <c r="AB3">
-        <v>51.605227304112702</v>
+        <v>51.605227202684326</v>
       </c>
       <c r="AC3">
-        <v>52.635484660306744</v>
+        <v>52.635484562289435</v>
       </c>
       <c r="AD3">
-        <v>62.295725925632318</v>
+        <v>62.29572588372163</v>
       </c>
       <c r="AE3">
-        <v>54.412057758633857</v>
+        <v>54.412057669455415</v>
       </c>
       <c r="AF3">
-        <v>38.143026026344891</v>
+        <v>38.143025913025411</v>
       </c>
       <c r="AG3">
-        <v>28.683981704596011</v>
+        <v>28.683981619623104</v>
       </c>
       <c r="AH3">
-        <v>21.720798533116096</v>
+        <v>21.720798422852447</v>
       </c>
       <c r="AI3">
-        <v>94.559582218283836</v>
+        <v>94.559582216286529</v>
       </c>
       <c r="AJ3">
-        <v>56.157106131198766</v>
+        <v>56.157106006143096</v>
       </c>
       <c r="AK3">
-        <v>42.847893255242866</v>
+        <v>42.847893163176018</v>
       </c>
       <c r="AL3">
-        <v>35.360215670388953</v>
+        <v>35.360215574170148</v>
       </c>
       <c r="AM3">
-        <v>46.362845207440074</v>
+        <v>46.362844931348789</v>
       </c>
       <c r="AN3">
-        <v>-29.858828110965735</v>
+        <v>-29.858828194277194</v>
       </c>
       <c r="AO3">
-        <v>59.811844143890049</v>
+        <v>59.811843965003284</v>
       </c>
       <c r="AP3">
-        <v>23.273974102627093</v>
+        <v>23.273973972057689</v>
       </c>
       <c r="AQ3">
-        <v>36.287817820331917</v>
+        <v>36.287817748352467</v>
       </c>
       <c r="AR3">
-        <v>68.35170197884041</v>
+        <v>68.351701911073405</v>
       </c>
       <c r="AS3">
-        <v>42.602558920654282</v>
+        <v>42.602558876512987</v>
       </c>
       <c r="AT3">
-        <v>59.321695041515667</v>
+        <v>59.321694916191618</v>
       </c>
       <c r="AU3">
-        <v>33.589107479026431</v>
+        <v>33.589107428836421</v>
       </c>
       <c r="AV3">
-        <v>26.856021231836475</v>
+        <v>26.856021021069708</v>
       </c>
       <c r="AW3">
-        <v>21.83387721237025</v>
+        <v>21.833877097507674</v>
       </c>
       <c r="AX3">
-        <v>27.022876311005689</v>
+        <v>27.02287625613975</v>
       </c>
       <c r="AY3">
-        <v>86.38434365974058</v>
+        <v>86.384343549118469</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_norm_elong_percent_msc_GM_Fuku_ind_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_elong_percent_msc_GM_Fuku_ind_max.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Subj</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -357,57 +351,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>15</v>
-      </c>
-      <c r="O1">
-        <v>16</v>
-      </c>
-      <c r="P1">
-        <v>18</v>
-      </c>
-      <c r="Q1">
-        <v>19</v>
-      </c>
-      <c r="R1">
-        <v>20</v>
-      </c>
       <c r="S1">
         <v>21</v>
       </c>
@@ -432,57 +375,6 @@
       <c r="Z1">
         <v>31</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <v>4</v>
-      </c>
-      <c r="AE1">
-        <v>5</v>
-      </c>
-      <c r="AF1">
-        <v>6</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>8</v>
-      </c>
-      <c r="AI1">
-        <v>9</v>
-      </c>
-      <c r="AJ1">
-        <v>10</v>
-      </c>
-      <c r="AK1">
-        <v>11</v>
-      </c>
-      <c r="AL1">
-        <v>13</v>
-      </c>
-      <c r="AM1">
-        <v>15</v>
-      </c>
-      <c r="AN1">
-        <v>16</v>
-      </c>
-      <c r="AO1">
-        <v>18</v>
-      </c>
-      <c r="AP1">
-        <v>19</v>
-      </c>
-      <c r="AQ1">
-        <v>20</v>
-      </c>
       <c r="AR1">
         <v>21</v>
       </c>
@@ -509,62 +401,59 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>13.933550705838218</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>24.943650448613912</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>37.304559833509309</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>59.981134300733409</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>30.200089428676456</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>13.486974754789655</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>30.65772114945538</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>33.935010396972068</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>34.077777161158046</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>13.139629274974743</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>6.8052281178692704</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>-14.332472732928551</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>31.788385198268053</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>40.073756798014848</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>42.00433588643849</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>4.4931527502460362</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>-12.468736369242462</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>57.485493477108328</v>
+        <v>35.688523481640921</v>
       </c>
       <c r="T2">
         <v>55.220749650492408</v>
@@ -588,55 +477,55 @@
         <v>39.40278194804111</v>
       </c>
       <c r="AA2">
-        <v>52.718514478552081</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>48.057224853401685</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>9.5996079775904732</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>75.635481515250518</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>30.383882333256313</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>39.453491256408732</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>46.583427928383649</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>49.863345142644597</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>44.809186678385529</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>32.938896903204366</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>34.650374305832948</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>-0.13964967704211786</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>48.057370662749413</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>42.017584636898228</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>66.792124579834422</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>49.362339392372974</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>4.1030483393096171</v>
+        <v>0</v>
       </c>
       <c r="AR2">
         <v>64.062416212696419</v>
@@ -664,59 +553,56 @@
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>21.1810840239289</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>25.307454358271404</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>53.765008247925039</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>47.818303672092384</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>23.250358539376357</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>40.688358966359672</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>5.4595122313713675</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>15.540375786150362</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>43.862538226314747</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>109.63933673761943</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>42.824599794695814</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>9.7452631679942634</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>31.338697509006231</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>-43.18188739632469</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>48.105502430128809</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>26.222253704961457</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>-0.44052512420341572</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>56.58798664142801</v>
@@ -743,55 +629,55 @@
         <v>57.361002367369665</v>
       </c>
       <c r="AA3">
-        <v>52.341229930611902</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>51.605227202684326</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>52.635484562289435</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>62.29572588372163</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>54.412057669455415</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>38.143025913025411</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>28.683981619623104</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>21.720798422852447</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>94.559582216286529</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>56.157106006143096</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>42.847893163176018</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>35.360215574170148</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>46.362844931348789</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>-29.858828194277194</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>59.811843965003284</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>23.273973972057689</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>36.287817748352467</v>
+        <v>0</v>
       </c>
       <c r="AR3">
         <v>68.351701911073405</v>

--- a/data_output/prism_passive/all_passive_out_norm_elong_percent_msc_GM_Fuku_ind_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_elong_percent_msc_GM_Fuku_ind_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>8.3450972677745607</v>
+        <v>42.225061315727089</v>
       </c>
       <c r="C2">
-        <v>16.803318486524173</v>
+        <v>39.71845511051913</v>
       </c>
       <c r="D2">
-        <v>48.975306573856706</v>
+        <v>46.776653437843954</v>
       </c>
       <c r="E2">
-        <v>24.82394580494466</v>
+        <v>29.200924079334971</v>
       </c>
       <c r="F2">
         <v>26.877360063640182</v>
@@ -673,16 +668,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>22.750860220118032</v>
+        <v>57.342222431918422</v>
       </c>
       <c r="C3">
-        <v>31.171197810387941</v>
+        <v>38.427319165220226</v>
       </c>
       <c r="D3">
-        <v>46.370479144722424</v>
+        <v>42.86379260784507</v>
       </c>
       <c r="E3">
-        <v>57.463294770590444</v>
+        <v>17.26090334741032</v>
       </c>
       <c r="F3">
         <v>23.69832775827275</v>

--- a/data_output/prism_passive/all_passive_out_norm_elong_percent_msc_GM_Fuku_ind_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_elong_percent_msc_GM_Fuku_ind_max.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>8.3450972677745607</v>
+        <v>14.336693754819585</v>
       </c>
       <c r="C2">
-        <v>16.803318486524173</v>
+        <v>39.339980946029236</v>
       </c>
       <c r="D2">
-        <v>48.975306573856706</v>
+        <v>50.765568178273703</v>
       </c>
       <c r="E2">
-        <v>24.82394580494466</v>
+        <v>42.885043917306568</v>
       </c>
       <c r="F2">
         <v>26.877360063640182</v>
@@ -670,16 +665,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>22.750860220118032</v>
+        <v>30.333193684649491</v>
       </c>
       <c r="C3">
-        <v>31.171197810387941</v>
+        <v>57.342222431918422</v>
       </c>
       <c r="D3">
-        <v>46.370479144722424</v>
+        <v>67.092777807206431</v>
       </c>
       <c r="E3">
-        <v>59.119514168031159</v>
+        <v>42.86379260784507</v>
       </c>
       <c r="F3">
         <v>23.69832775827275</v>

--- a/data_output/prism_passive/all_passive_out_norm_elong_percent_msc_GM_Fuku_ind_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_elong_percent_msc_GM_Fuku_ind_max.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -513,151 +513,151 @@
         <v>1</v>
       </c>
       <c r="B2">
+        <v>8.5389019390308647</v>
+      </c>
+      <c r="C2">
+        <v>16.80331802766862</v>
+      </c>
+      <c r="D2">
+        <v>33.86275568911757</v>
+      </c>
+      <c r="E2">
+        <v>17.061282218145188</v>
+      </c>
+      <c r="F2">
+        <v>26.877360070739144</v>
+      </c>
+      <c r="G2">
+        <v>31.03295376841081</v>
+      </c>
+      <c r="H2">
+        <v>14.947215333281012</v>
+      </c>
+      <c r="I2">
+        <v>10.846661876158363</v>
+      </c>
+      <c r="J2">
+        <v>27.048679481925021</v>
+      </c>
+      <c r="K2">
+        <v>12.884861333551015</v>
+      </c>
+      <c r="L2">
+        <v>22.818546313125537</v>
+      </c>
+      <c r="M2">
+        <v>21.512628175743238</v>
+      </c>
+      <c r="N2">
         <v>14.336693754819585</v>
       </c>
-      <c r="C2">
+      <c r="O2">
         <v>39.339980946029236</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>11.284944278866407</v>
+      </c>
+      <c r="Q2">
+        <v>17.933419394239539</v>
+      </c>
+      <c r="R2">
+        <v>39.71845511051913</v>
+      </c>
+      <c r="T2">
+        <v>14.93108984034461</v>
+      </c>
+      <c r="U2">
+        <v>43.702258892982009</v>
+      </c>
+      <c r="V2">
+        <v>37.308007599074017</v>
+      </c>
+      <c r="W2">
+        <v>33.357104026660132</v>
+      </c>
+      <c r="X2">
+        <v>21.804023026090306</v>
+      </c>
+      <c r="Y2">
+        <v>44.784920123028265</v>
+      </c>
+      <c r="Z2">
+        <v>68.065144635809091</v>
+      </c>
+      <c r="AA2">
+        <v>53.0630052738111</v>
+      </c>
+      <c r="AB2">
+        <v>73.441915673719265</v>
+      </c>
+      <c r="AC2">
+        <v>30.978291276096993</v>
+      </c>
+      <c r="AD2">
+        <v>44.654243235015137</v>
+      </c>
+      <c r="AE2">
+        <v>27.889661833602062</v>
+      </c>
+      <c r="AF2">
+        <v>36.644869511202323</v>
+      </c>
+      <c r="AG2">
+        <v>33.818259698449808</v>
+      </c>
+      <c r="AH2">
+        <v>41.797995723622684</v>
+      </c>
+      <c r="AI2">
+        <v>65.369768994925465</v>
+      </c>
+      <c r="AJ2">
+        <v>30.301247977659461</v>
+      </c>
+      <c r="AK2">
+        <v>28.686615659035748</v>
+      </c>
+      <c r="AL2">
+        <v>20.518694188306274</v>
+      </c>
+      <c r="AM2">
         <v>50.765568178273703</v>
       </c>
-      <c r="E2">
+      <c r="AN2">
         <v>42.885043917306568</v>
       </c>
-      <c r="F2">
-        <v>26.877360063640182</v>
-      </c>
-      <c r="G2">
-        <v>31.032954064832641</v>
-      </c>
-      <c r="H2">
-        <v>15.135781419406474</v>
-      </c>
-      <c r="I2">
-        <v>18.323906837905692</v>
-      </c>
-      <c r="J2">
-        <v>27.686241846225418</v>
-      </c>
-      <c r="K2">
-        <v>12.685825240721513</v>
-      </c>
-      <c r="L2">
-        <v>22.391582254284696</v>
-      </c>
-      <c r="M2">
-        <v>21.512628305943995</v>
-      </c>
-      <c r="N2">
-        <v>12.866513825357037</v>
-      </c>
-      <c r="O2">
-        <v>42.225061591555352</v>
-      </c>
-      <c r="P2">
-        <v>11.284944697953476</v>
-      </c>
-      <c r="Q2">
-        <v>17.93341973472014</v>
-      </c>
-      <c r="R2">
-        <v>39.71845471322969</v>
-      </c>
-      <c r="T2">
-        <v>14.931089734824846</v>
-      </c>
-      <c r="U2">
-        <v>42.373842394343654</v>
-      </c>
-      <c r="V2">
-        <v>33.795797863755176</v>
-      </c>
-      <c r="W2">
-        <v>34.239459580355508</v>
-      </c>
-      <c r="X2">
-        <v>18.61081067643633</v>
-      </c>
-      <c r="Y2">
-        <v>45.356459876011606</v>
-      </c>
-      <c r="Z2">
-        <v>68.065145157018407</v>
-      </c>
-      <c r="AA2">
-        <v>53.505677736801829</v>
-      </c>
-      <c r="AB2">
-        <v>73.441916171525691</v>
-      </c>
-      <c r="AC2">
-        <v>35.801647802479231</v>
-      </c>
-      <c r="AD2">
-        <v>66.992393545905315</v>
-      </c>
-      <c r="AE2">
-        <v>27.889662062663994</v>
-      </c>
-      <c r="AF2">
-        <v>36.6448698111749</v>
-      </c>
-      <c r="AG2">
-        <v>37.29630071288598</v>
-      </c>
-      <c r="AH2">
-        <v>46.916531187307754</v>
-      </c>
-      <c r="AI2">
-        <v>66.538167305240464</v>
-      </c>
-      <c r="AJ2">
-        <v>28.603716024995624</v>
-      </c>
-      <c r="AK2">
-        <v>31.123296337784684</v>
-      </c>
-      <c r="AL2">
-        <v>20.518694442273432</v>
-      </c>
-      <c r="AM2">
-        <v>50.852714322724047</v>
-      </c>
-      <c r="AN2">
-        <v>46.776653831885397</v>
-      </c>
       <c r="AO2">
-        <v>50.526971623697015</v>
+        <v>50.526971157124137</v>
       </c>
       <c r="AP2">
-        <v>39.632675474570874</v>
+        <v>39.632675066084886</v>
       </c>
       <c r="AQ2">
-        <v>29.200924198647289</v>
+        <v>29.200924079334971</v>
       </c>
       <c r="AR2">
-        <v>29.376595399384708</v>
+        <v>21.729257309793841</v>
       </c>
       <c r="AS2">
-        <v>32.445377117695998</v>
+        <v>32.445376723592517</v>
       </c>
       <c r="AT2">
-        <v>67.656752697467937</v>
+        <v>67.347184651483545</v>
       </c>
       <c r="AU2">
-        <v>25.805313416871527</v>
+        <v>18.571298885224216</v>
       </c>
       <c r="AV2">
-        <v>64.199283344526449</v>
+        <v>66.941607065515669</v>
       </c>
       <c r="AW2">
-        <v>54.462509667739191</v>
+        <v>45.373529577033231</v>
       </c>
       <c r="AX2">
-        <v>57.671797278669288</v>
+        <v>57.893722767881819</v>
       </c>
       <c r="AY2">
-        <v>55.386269823811432</v>
+        <v>55.3862693283562</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -665,154 +665,154 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>22.750859570493091</v>
+      </c>
+      <c r="C3">
+        <v>24.947371684081297</v>
+      </c>
+      <c r="D3">
+        <v>46.370478001994584</v>
+      </c>
+      <c r="E3">
+        <v>59.119513542835954</v>
+      </c>
+      <c r="F3">
+        <v>21.21746363717498</v>
+      </c>
+      <c r="G3">
+        <v>29.691499073951345</v>
+      </c>
+      <c r="H3">
+        <v>20.732732778504065</v>
+      </c>
+      <c r="I3">
+        <v>15.480859524455004</v>
+      </c>
+      <c r="J3">
+        <v>35.466985424993574</v>
+      </c>
+      <c r="K3">
+        <v>30.16067353237845</v>
+      </c>
+      <c r="L3">
+        <v>28.222291171567015</v>
+      </c>
+      <c r="M3">
+        <v>26.06982659668229</v>
+      </c>
+      <c r="N3">
         <v>30.333193684649491</v>
       </c>
-      <c r="C3">
+      <c r="O3">
         <v>57.342222431918422</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>53.896278489624407</v>
+      </c>
+      <c r="Q3">
+        <v>17.112737831821807</v>
+      </c>
+      <c r="R3">
+        <v>43.12133035099334</v>
+      </c>
+      <c r="S3">
+        <v>39.237653100394823</v>
+      </c>
+      <c r="T3">
+        <v>32.572074230185848</v>
+      </c>
+      <c r="U3">
+        <v>37.957329821082659</v>
+      </c>
+      <c r="V3">
+        <v>27.308343693105464</v>
+      </c>
+      <c r="W3">
+        <v>39.44947858273003</v>
+      </c>
+      <c r="X3">
+        <v>28.840736198548118</v>
+      </c>
+      <c r="Y3">
+        <v>68.751702308827973</v>
+      </c>
+      <c r="Z3">
+        <v>68.049670717286872</v>
+      </c>
+      <c r="AA3">
+        <v>48.148015085185115</v>
+      </c>
+      <c r="AB3">
+        <v>44.380308503446471</v>
+      </c>
+      <c r="AC3">
+        <v>33.920387250780138</v>
+      </c>
+      <c r="AD3">
+        <v>49.209831091722599</v>
+      </c>
+      <c r="AE3">
+        <v>34.49508493619782</v>
+      </c>
+      <c r="AF3">
+        <v>47.324674060524906</v>
+      </c>
+      <c r="AG3">
+        <v>30.57257138146181</v>
+      </c>
+      <c r="AH3">
+        <v>31.9255543672387</v>
+      </c>
+      <c r="AI3">
+        <v>47.396322598077269</v>
+      </c>
+      <c r="AJ3">
+        <v>51.115953650580273</v>
+      </c>
+      <c r="AK3">
+        <v>35.21195643382525</v>
+      </c>
+      <c r="AL3">
+        <v>44.159317505267722</v>
+      </c>
+      <c r="AM3">
         <v>67.092777807206431</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>42.86379260784507</v>
       </c>
-      <c r="F3">
-        <v>23.69832775827275</v>
-      </c>
-      <c r="G3">
-        <v>31.025079784355608</v>
-      </c>
-      <c r="H3">
-        <v>20.732732698734981</v>
-      </c>
-      <c r="I3">
-        <v>15.480859712581388</v>
-      </c>
-      <c r="J3">
-        <v>35.466985706733794</v>
-      </c>
-      <c r="K3">
-        <v>30.160673559787583</v>
-      </c>
-      <c r="L3">
-        <v>28.222291370001649</v>
-      </c>
-      <c r="M3">
-        <v>24.702986202126933</v>
-      </c>
-      <c r="N3">
-        <v>30.333193715840395</v>
-      </c>
-      <c r="O3">
-        <v>57.342222471033054</v>
-      </c>
-      <c r="P3">
-        <v>57.887913576616043</v>
-      </c>
-      <c r="Q3">
-        <v>15.233870566261167</v>
-      </c>
-      <c r="R3">
-        <v>38.427319607872057</v>
-      </c>
-      <c r="S3">
-        <v>39.23765354394515</v>
-      </c>
-      <c r="T3">
-        <v>33.665284211874088</v>
-      </c>
-      <c r="U3">
-        <v>37.95733043655656</v>
-      </c>
-      <c r="V3">
-        <v>27.308340987454997</v>
-      </c>
-      <c r="W3">
-        <v>39.449478634693143</v>
-      </c>
-      <c r="X3">
-        <v>28.840736396764662</v>
-      </c>
-      <c r="Y3">
-        <v>68.751703028508658</v>
-      </c>
-      <c r="Z3">
-        <v>69.005386068838064</v>
-      </c>
-      <c r="AA3">
-        <v>48.148015256947147</v>
-      </c>
-      <c r="AB3">
-        <v>50.055220218760496</v>
-      </c>
-      <c r="AC3">
-        <v>33.920387729018188</v>
-      </c>
-      <c r="AD3">
-        <v>49.209831222350992</v>
-      </c>
-      <c r="AE3">
-        <v>38.076052586101234</v>
-      </c>
-      <c r="AF3">
-        <v>53.313912255184171</v>
-      </c>
-      <c r="AG3">
-        <v>30.5725715815875</v>
-      </c>
-      <c r="AH3">
-        <v>31.925554818165867</v>
-      </c>
-      <c r="AI3">
-        <v>47.39632294917778</v>
-      </c>
-      <c r="AJ3">
-        <v>51.115954096710801</v>
-      </c>
-      <c r="AK3">
-        <v>35.211956724256062</v>
-      </c>
-      <c r="AL3">
-        <v>43.23815785200317</v>
-      </c>
-      <c r="AM3">
-        <v>67.092778512247293</v>
-      </c>
-      <c r="AN3">
-        <v>42.863793001586167</v>
-      </c>
       <c r="AO3">
-        <v>82.335982050600705</v>
+        <v>79.363523905268167</v>
       </c>
       <c r="AP3">
-        <v>46.337818841543992</v>
+        <v>44.771776792682701</v>
       </c>
       <c r="AQ3">
-        <v>17.260903482663128</v>
+        <v>17.073207678383952</v>
       </c>
       <c r="AR3">
-        <v>33.780045080745253</v>
+        <v>33.780044691619175</v>
       </c>
       <c r="AS3">
-        <v>40.329490445642726</v>
+        <v>39.07130156338188</v>
       </c>
       <c r="AT3">
-        <v>52.89645540325634</v>
+        <v>52.896454776423496</v>
       </c>
       <c r="AU3">
-        <v>19.682491337620984</v>
+        <v>19.682491073630835</v>
       </c>
       <c r="AV3">
-        <v>44.184849146688101</v>
+        <v>44.184848638118744</v>
       </c>
       <c r="AW3">
-        <v>44.07485685130051</v>
+        <v>44.074856394392391</v>
       </c>
       <c r="AX3">
-        <v>30.460058506750087</v>
+        <v>30.460058242119043</v>
       </c>
       <c r="AY3">
-        <v>66.731041574707803</v>
+        <v>67.070320130916642</v>
       </c>
     </row>
   </sheetData>
